--- a/NformTester/NformTester/Keywordscripts/600.20.30.60_ConfigureReaddataAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.60_ConfigureReaddataAction.xlsx
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7515" uniqueCount="846">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4051,7 +4051,35 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4790,10 +4818,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5004,7 +5032,7 @@
         <v>773</v>
       </c>
       <c r="B7" s="16">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C7" s="8">
         <v>6</v>
@@ -6702,14 +6730,12 @@
         <v>306</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>842</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -6722,13 +6748,13 @@
         <v>73</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>306</v>
+        <v>790</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G74" s="8" t="s">
         <v>2</v>
@@ -6746,13 +6772,13 @@
         <v>74</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>788</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>820</v>
+        <v>790</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="G75" s="8" t="s">
         <v>2</v>
@@ -6770,16 +6796,20 @@
         <v>75</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="F76" s="8">
-        <v>5</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
+        <v>306</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>842</v>
+      </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -6798,7 +6828,7 @@
         <v>306</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>2</v>
@@ -6811,16 +6841,22 @@
       <c r="M77" s="8"/>
       <c r="N77" s="10"/>
     </row>
-    <row r="78" spans="3:14" ht="15">
+    <row r="78" spans="3:14">
       <c r="C78" s="8">
         <v>77</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="E78" s="6"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
+      <c r="D78" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>2</v>
+      </c>
       <c r="H78" s="8"/>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
@@ -6834,10 +6870,10 @@
         <v>78</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>822</v>
+        <v>793</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>823</v>
+        <v>756</v>
       </c>
       <c r="F79" s="8">
         <v>5</v>
@@ -6859,40 +6895,34 @@
         <v>788</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>19</v>
+        <v>306</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="G80" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
       <c r="M80" s="8"/>
       <c r="N80" s="10"/>
     </row>
-    <row r="81" spans="3:14">
+    <row r="81" spans="3:14" ht="15">
       <c r="C81" s="8">
         <v>80</v>
       </c>
-      <c r="D81" s="11" t="s">
-        <v>824</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
+      <c r="D81" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="8"/>
@@ -6904,20 +6934,16 @@
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>797</v>
-      </c>
+        <v>823</v>
+      </c>
+      <c r="F82" s="8">
+        <v>5</v>
+      </c>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -6925,24 +6951,24 @@
       <c r="M82" s="8"/>
       <c r="N82" s="10"/>
     </row>
-    <row r="83" spans="3:14" ht="14.25">
+    <row r="83" spans="3:14">
       <c r="C83" s="8">
         <v>82</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>824</v>
+        <v>788</v>
       </c>
       <c r="E83" s="6" t="s">
-        <v>825</v>
+        <v>19</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>184</v>
+        <v>22</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H83" s="13"/>
-      <c r="I83" s="8"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="8"/>
@@ -6956,17 +6982,17 @@
       <c r="D84" s="11" t="s">
         <v>824</v>
       </c>
-      <c r="E84" s="8" t="s">
-        <v>585</v>
+      <c r="E84" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H84" s="6"/>
-      <c r="I84" s="8"/>
+      <c r="I84" s="6"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="8"/>
@@ -6984,34 +7010,38 @@
         <v>825</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>99</v>
+        <v>578</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
       <c r="N85" s="10"/>
     </row>
-    <row r="86" spans="3:14">
+    <row r="86" spans="3:14" ht="14.25">
       <c r="C86" s="8">
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="E86" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="F86" s="8">
-        <v>3</v>
-      </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
+        <v>825</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="13"/>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -7019,35 +7049,105 @@
       <c r="M86" s="8"/>
       <c r="N86" s="10"/>
     </row>
+    <row r="87" spans="3:14">
+      <c r="C87" s="8">
+        <v>86</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87" s="6"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="10"/>
+    </row>
+    <row r="88" spans="3:14">
+      <c r="C88" s="8">
+        <v>87</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>824</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" spans="3:14">
+      <c r="C89" s="8">
+        <v>88</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>793</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="F89" s="8">
+        <v>3</v>
+      </c>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="8"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N26">
-    <cfRule type="cellIs" dxfId="3" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N86">
-    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N27:N89">
+    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G83:G86 G2:G81">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G86:G89 G2:G84">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55:D61 D26 D86 D80 D63:D69 D72:D77 D47:D53 D40:D45 D28:D38 D3 D7:D22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55:D61 D26 D89 D83 D63:D69 D7:D22 D47:D53 D40:D45 D28:D38 D3 D72:D80">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F60:F86 F46:F58 F2:F44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44 F46:F58 F60:F89">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E89">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.60_ConfigureReaddataAction.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.60_ConfigureReaddataAction.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-2415" yWindow="15" windowWidth="15480" windowHeight="11655"/>
@@ -1204,7 +1204,7 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -3641,10 +3641,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Select</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3805,7 +3801,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SearchStart_1$</t>
+    <t>$NAME_ACTION_SearchStart_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4046,40 +4046,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4534,7 +4506,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4820,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4887,7 +4859,7 @@
         <v>766</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -4905,7 +4877,7 @@
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="10" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4913,13 +4885,13 @@
         <v>767</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C3" s="8">
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>0</v>
@@ -4929,13 +4901,13 @@
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>829</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>830</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -4954,7 +4926,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -4979,7 +4951,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>577</v>
@@ -4989,13 +4961,13 @@
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>834</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>835</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
@@ -5007,13 +4979,13 @@
         <v>772</v>
       </c>
       <c r="B6" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>838</v>
-      </c>
-      <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>839</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -5199,7 +5171,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -5348,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="3"/>
@@ -5409,8 +5381,8 @@
       <c r="G19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>845</v>
+      <c r="H19" s="8" t="s">
+        <v>844</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="3"/>
@@ -5624,7 +5596,7 @@
         <v>26</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="8"/>
@@ -5702,7 +5674,7 @@
         <v>56</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -5778,8 +5750,8 @@
       <c r="H33" s="8">
         <v>2</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>802</v>
+      <c r="I33" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
@@ -5801,10 +5773,10 @@
         <v>394</v>
       </c>
       <c r="G34" s="8" t="s">
+        <v>802</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>803</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>804</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
@@ -5824,13 +5796,13 @@
         <v>391</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>56</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -5916,7 +5888,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -5967,7 +5939,7 @@
         <v>27</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -5988,7 +5960,7 @@
         <v>19</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>2</v>
@@ -6012,7 +5984,7 @@
         <v>19</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>3</v>
@@ -6056,10 +6028,10 @@
         <v>44</v>
       </c>
       <c r="D45" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>811</v>
       </c>
       <c r="F45" s="8">
         <v>2</v>
@@ -6078,7 +6050,7 @@
         <v>45</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="8"/>
@@ -6126,7 +6098,7 @@
         <v>19</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G48" s="8" t="s">
         <v>2</v>
@@ -6155,8 +6127,8 @@
       <c r="G49" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>802</v>
+      <c r="H49" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -6266,7 +6238,7 @@
         <v>53</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="8"/>
@@ -6284,7 +6256,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>19</v>
@@ -6308,13 +6280,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>2</v>
@@ -6332,13 +6304,13 @@
         <v>56</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G57" s="8" t="s">
         <v>57</v>
@@ -6360,7 +6332,7 @@
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>19</v>
@@ -6384,10 +6356,10 @@
         <v>58</v>
       </c>
       <c r="D59" s="11" t="s">
+        <v>809</v>
+      </c>
+      <c r="E59" s="6" t="s">
         <v>810</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>811</v>
       </c>
       <c r="F59" s="8">
         <v>2</v>
@@ -6409,16 +6381,16 @@
         <v>788</v>
       </c>
       <c r="E60" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>817</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>818</v>
       </c>
       <c r="G60" s="8" t="s">
         <v>59</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="8"/>
@@ -6435,7 +6407,7 @@
         <v>788</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>99</v>
@@ -6456,7 +6428,7 @@
         <v>61</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -6474,7 +6446,7 @@
         <v>62</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>19</v>
@@ -6498,7 +6470,7 @@
         <v>63</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>19</v>
@@ -6522,7 +6494,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>306</v>
@@ -6534,7 +6506,7 @@
         <v>56</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -6548,7 +6520,7 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>306</v>
@@ -6584,7 +6556,7 @@
         <v>56</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -6613,7 +6585,7 @@
         <v>791</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J68" s="8" t="b">
         <v>1</v>
@@ -6808,7 +6780,7 @@
         <v>56</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -6849,7 +6821,7 @@
         <v>788</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F78" s="8" t="s">
         <v>200</v>
@@ -6916,7 +6888,7 @@
         <v>80</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="8"/>
@@ -6934,10 +6906,10 @@
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
+        <v>821</v>
+      </c>
+      <c r="E82" s="6" t="s">
         <v>822</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>823</v>
       </c>
       <c r="F82" s="8">
         <v>5</v>
@@ -6980,7 +6952,7 @@
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>19</v>
@@ -7004,10 +6976,10 @@
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="E85" s="6" t="s">
         <v>824</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>825</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>578</v>
@@ -7030,10 +7002,10 @@
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="E86" s="6" t="s">
         <v>824</v>
-      </c>
-      <c r="E86" s="6" t="s">
-        <v>825</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>184</v>
@@ -7054,7 +7026,7 @@
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>585</v>
@@ -7078,10 +7050,10 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="E88" s="6" t="s">
         <v>824</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>825</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>99</v>
@@ -7105,7 +7077,7 @@
         <v>793</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F89" s="8">
         <v>3</v>
@@ -7122,18 +7094,18 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N26">
-    <cfRule type="cellIs" dxfId="7" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="51" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="52" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N89">
-    <cfRule type="cellIs" dxfId="5" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
